--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612048.3158272791</v>
+        <v>625806.5674532014</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16799231.59170662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843296</v>
+        <v>2228144.448830838</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6536982.168188933</v>
+        <v>7090511.242038809</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7456445843458</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>185.5573750678089</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>83.71046610478319</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>192.3913321282014</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -953,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>99.80695132133121</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>109.5759770502</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>367.4515573370035</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1193,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>94.07594816308598</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>359.2189536048517</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.0816546872142</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>62.02280383276737</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>54.18430635300722</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>52.79556056590975</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2959,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830552</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>110.6751464993812</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>164.383504742125</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225738</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>34.71811217257896</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>134.7747313870626</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>117.9071773788868</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365720005</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.208855320677</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C2" t="n">
-        <v>778.0663825041006</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D2" t="n">
-        <v>778.0663825041006</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E2" t="n">
-        <v>344.2916376623957</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F2" t="n">
-        <v>344.2916376623957</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2916376623957</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>2040.206773330333</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>1635.351318741366</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>1216.208855320677</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y2" t="n">
-        <v>1216.208855320677</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>80.80836689320955</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>382.60715354234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>382.60715354234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>382.60715354234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>808.6510928577823</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C4" t="n">
-        <v>636.0893813410072</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D4" t="n">
-        <v>551.5333549725393</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E4" t="n">
-        <v>551.5333549725393</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F4" t="n">
-        <v>374.8263009342955</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G4" t="n">
-        <v>209.2350259601232</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1473.281136929249</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1227.889382262661</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.469711576769</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>924.8460127728722</v>
+        <v>1397.004082558041</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8460127728722</v>
+        <v>1397.004082558041</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9362279473168</v>
+        <v>1202.669403640666</v>
       </c>
       <c r="E5" t="n">
-        <v>55.16148310561195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>367.4968274222251</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544139</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K5" t="n">
-        <v>535.6838670561251</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="L5" t="n">
-        <v>1213.149451998931</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="M5" t="n">
-        <v>1890.615036941736</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="N5" t="n">
-        <v>2568.080621884541</v>
+        <v>1388.901640863327</v>
       </c>
       <c r="O5" t="n">
-        <v>2568.080621884541</v>
+        <v>2353.531449084021</v>
       </c>
       <c r="P5" t="n">
-        <v>2568.080621884541</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>3677.426947502108</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>3418.204644819125</v>
       </c>
       <c r="V5" t="n">
-        <v>2157.130054482875</v>
+        <v>3055.587694752951</v>
       </c>
       <c r="W5" t="n">
-        <v>1752.274599893908</v>
+        <v>2650.732240163985</v>
       </c>
       <c r="X5" t="n">
-        <v>1333.132136473219</v>
+        <v>2231.589776743296</v>
       </c>
       <c r="Y5" t="n">
-        <v>924.8460127728722</v>
+        <v>1823.303653042949</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838741</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205164</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670697</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940234</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>205.070625410185</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.01686687705</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812342</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455365</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844165</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636373</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>905.2407308096831</v>
+        <v>766.0258996155653</v>
       </c>
       <c r="C7" t="n">
-        <v>732.679019292908</v>
+        <v>593.4641880987903</v>
       </c>
       <c r="D7" t="n">
-        <v>566.8010264944307</v>
+        <v>427.586195300313</v>
       </c>
       <c r="E7" t="n">
-        <v>397.0430227451681</v>
+        <v>257.8281915510502</v>
       </c>
       <c r="F7" t="n">
-        <v>220.3359687069243</v>
+        <v>81.12113751280643</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S7" t="n">
-        <v>2653.165134592867</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T7" t="n">
-        <v>2407.285688171322</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U7" t="n">
-        <v>2128.852687424428</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.897179294858</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.87077488115</v>
+        <v>1430.655943687032</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.479020214562</v>
+        <v>1185.264189020444</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.05934952867</v>
+        <v>957.8445183345525</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287.966846767406</v>
+        <v>1313.352208741878</v>
       </c>
       <c r="C8" t="n">
-        <v>1287.966846767406</v>
+        <v>1202.669403640666</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.966846767406</v>
+        <v>1202.669403640666</v>
       </c>
       <c r="E8" t="n">
-        <v>854.1921019257006</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="F8" t="n">
-        <v>426.3246723349084</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>367.4968274222251</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544139</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K8" t="n">
-        <v>732.2102786755574</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L8" t="n">
-        <v>732.2102786755574</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M8" t="n">
-        <v>732.2102786755574</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N8" t="n">
-        <v>732.2102786755574</v>
+        <v>1388.901640863327</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084021</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812907</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685945</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.012383954615</v>
+        <v>3334.552771002962</v>
       </c>
       <c r="V8" t="n">
-        <v>2115.395433888441</v>
+        <v>2971.935820936788</v>
       </c>
       <c r="W8" t="n">
-        <v>2115.395433888441</v>
+        <v>2567.080366347822</v>
       </c>
       <c r="X8" t="n">
-        <v>1696.252970467752</v>
+        <v>2147.937902927133</v>
       </c>
       <c r="Y8" t="n">
-        <v>1287.966846767406</v>
+        <v>1739.651779226786</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838741</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205164</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670697</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940234</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.070625410185</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>379.3030186989643</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>379.3030186989643</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L9" t="n">
-        <v>923.3460921744155</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M9" t="n">
-        <v>923.3460921744155</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.811677117221</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.01686687705</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812342</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455365</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844165</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636373</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>905.2407308096831</v>
+        <v>928.4459205695126</v>
       </c>
       <c r="C10" t="n">
-        <v>732.679019292908</v>
+        <v>755.8842090527376</v>
       </c>
       <c r="D10" t="n">
-        <v>566.8010264944307</v>
+        <v>590.0062162542603</v>
       </c>
       <c r="E10" t="n">
-        <v>397.0430227451681</v>
+        <v>420.2482125049975</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>243.5411584667537</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S10" t="n">
-        <v>2653.165134592867</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="T10" t="n">
-        <v>2407.285688171322</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U10" t="n">
-        <v>2128.852687424428</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V10" t="n">
-        <v>1841.897179294858</v>
+        <v>1865.102369054687</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.87077488115</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.479020214562</v>
+        <v>1347.684209974391</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.05934952867</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.914854098769</v>
+        <v>1781.267402102242</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.914854098769</v>
+        <v>1343.124929285665</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.914854098769</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="E11" t="n">
-        <v>1173.140109257064</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F11" t="n">
-        <v>745.2726796662719</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>1344.116250983141</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M11" t="n">
-        <v>1344.116250983141</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N11" t="n">
-        <v>1344.116250983141</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084021</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3802.467964363326</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>3439.851014297153</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>3034.995559708186</v>
       </c>
       <c r="X11" t="n">
-        <v>1606.914854098769</v>
+        <v>2615.853096287497</v>
       </c>
       <c r="Y11" t="n">
-        <v>1606.914854098769</v>
+        <v>2207.56697258715</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838741</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205164</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670697</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940234</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.070625410185</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.01686687705</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812342</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455365</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844165</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636373</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1045.142905119309</v>
+        <v>928.4459205695126</v>
       </c>
       <c r="C13" t="n">
-        <v>872.5811936025335</v>
+        <v>755.8842090527376</v>
       </c>
       <c r="D13" t="n">
-        <v>706.7032008040562</v>
+        <v>590.0062162542603</v>
       </c>
       <c r="E13" t="n">
-        <v>536.9451970547935</v>
+        <v>420.2482125049975</v>
       </c>
       <c r="F13" t="n">
-        <v>360.2381430165498</v>
+        <v>243.5411584667537</v>
       </c>
       <c r="G13" t="n">
-        <v>194.6468680423774</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U13" t="n">
-        <v>2268.754861734053</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V13" t="n">
-        <v>1981.799353604483</v>
+        <v>1865.102369054687</v>
       </c>
       <c r="W13" t="n">
-        <v>1709.772949190775</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X13" t="n">
-        <v>1464.381194524188</v>
+        <v>1347.684209974391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.961523838296</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.1113921784387</v>
+        <v>1813.644315567211</v>
       </c>
       <c r="C14" t="n">
-        <v>883.1113921784387</v>
+        <v>1375.501842750634</v>
       </c>
       <c r="D14" t="n">
-        <v>883.1113921784387</v>
+        <v>939.5920579250785</v>
       </c>
       <c r="E14" t="n">
-        <v>883.1113921784387</v>
+        <v>505.8173130833736</v>
       </c>
       <c r="F14" t="n">
-        <v>455.2439625876464</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1003.604749966986</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1968.23455818768</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2932.864366408375</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.012383954615</v>
+        <v>3834.844877828295</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.395433888441</v>
+        <v>3472.227927762121</v>
       </c>
       <c r="W14" t="n">
-        <v>1710.539979299475</v>
+        <v>3067.372473173155</v>
       </c>
       <c r="X14" t="n">
-        <v>1291.397515878785</v>
+        <v>2648.230009752465</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.1113921784387</v>
+        <v>2239.943886052119</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838741</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205164</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670697</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940234</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.070625410185</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>405.3666918594219</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L15" t="n">
-        <v>405.3666918594219</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M15" t="n">
-        <v>405.3666918594219</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N15" t="n">
-        <v>405.3666918594219</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O15" t="n">
-        <v>405.3666918594219</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.01686687705</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812342</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455365</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844165</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636373</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>928.4459205695126</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>755.8842090527376</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>590.0062162542603</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>420.2482125049975</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>243.5411584667537</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1865.102369054687</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1347.684209974391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="17">
@@ -5519,28 +5521,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5552,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>584.4613435928212</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
         <v>584.4613435928212</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,16 +6229,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6545,19 @@
         <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P30" t="n">
         <v>4455.130296812566</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6698,31 +6700,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6886,10 +6888,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
         <v>2117.975449367836</v>
@@ -6917,19 +6919,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>852.6195887352237</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7014,25 +7016,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1902.648992452343</v>
+        <v>1979.688259751175</v>
       </c>
       <c r="C41" t="n">
-        <v>1464.506519635767</v>
+        <v>1541.545786934599</v>
       </c>
       <c r="D41" t="n">
-        <v>1028.596734810211</v>
+        <v>1105.636002109043</v>
       </c>
       <c r="E41" t="n">
-        <v>594.8219899685064</v>
+        <v>671.8612572673383</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9545603777141</v>
+        <v>243.993827676546</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>243.993827676546</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258138</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258138</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454992</v>
       </c>
       <c r="K41" t="n">
-        <v>835.8047307933927</v>
+        <v>513.2045709454992</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.270315736198</v>
+        <v>513.2045709454992</v>
       </c>
       <c r="M41" t="n">
-        <v>1513.270315736198</v>
+        <v>1477.834379166194</v>
       </c>
       <c r="N41" t="n">
-        <v>1513.270315736198</v>
+        <v>2442.464187386888</v>
       </c>
       <c r="O41" t="n">
-        <v>2190.735900679003</v>
+        <v>3407.093995607583</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3407.093995607583</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876012</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3638.271871946085</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3638.271871946085</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3233.416417357119</v>
       </c>
       <c r="X41" t="n">
-        <v>2737.234686637598</v>
+        <v>2814.27395393643</v>
       </c>
       <c r="Y41" t="n">
-        <v>2328.948562937251</v>
+        <v>2405.987830236083</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141553</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978195</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.879408124748</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451702</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067864</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.990065334048</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.25441315026</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>2260.318086310718</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>2584.87641127693</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>3780.321396534729</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077452</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408054</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408022</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470021</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203215</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442095</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221316</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>946.6850896121969</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>774.1233780954218</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>608.2453852969445</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>438.4873815476818</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>261.7803275094379</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>96.1890525352656</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258138</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258138</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.524857214007</v>
+        <v>2448.730046973836</v>
       </c>
       <c r="U43" t="n">
-        <v>2147.091856467112</v>
+        <v>2170.297046226941</v>
       </c>
       <c r="V43" t="n">
-        <v>1860.136348337543</v>
+        <v>1883.341538097372</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.109943923834</v>
+        <v>1611.315133683663</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1365.923379017076</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>1138.503708331184</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2191.836957184118</v>
+        <v>2238.910562434159</v>
       </c>
       <c r="C44" t="n">
-        <v>1753.694484367541</v>
+        <v>1800.768089617582</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.784699541985</v>
+        <v>1364.858304792027</v>
       </c>
       <c r="E44" t="n">
-        <v>884.0099547002803</v>
+        <v>931.0835599503216</v>
       </c>
       <c r="F44" t="n">
-        <v>456.1425251094881</v>
+        <v>503.2161303595294</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493651</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258138</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258138</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>513.2045709454992</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L44" t="n">
-        <v>1344.116250983141</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M44" t="n">
-        <v>1344.116250983141</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="O44" t="n">
-        <v>2021.581835925947</v>
+        <v>3276.814479345066</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3350.995388670474</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="W44" t="n">
-        <v>2737.234686637598</v>
+        <v>3492.638720040102</v>
       </c>
       <c r="X44" t="n">
-        <v>2618.136527669025</v>
+        <v>3073.496256619413</v>
       </c>
       <c r="Y44" t="n">
-        <v>2618.136527669025</v>
+        <v>2665.210132919066</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141553</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978195</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.879408124748</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451702</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067864</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.990065334048</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.25441315026</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>2260.318086310718</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>2584.87641127693</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902653</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>3780.321396534729</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077452</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408054</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408022</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470021</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203215</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442095</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221316</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>742.8207098557364</v>
+        <v>2131.330601803201</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>1958.768890286426</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>1792.890897487948</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>1623.132893738686</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>1446.425839700442</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>1280.834564726269</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>1280.834564726269</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>1280.834564726269</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>1367.414249890959</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>1642.172704462095</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>2060.382586230055</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>2519.866453410968</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>2962.125256568613</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>3381.794505794394</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>3729.301399764736</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S46" t="n">
-        <v>2490.74511363892</v>
+        <v>3879.255005586384</v>
       </c>
       <c r="T46" t="n">
-        <v>2244.865667217376</v>
+        <v>3633.37555916484</v>
       </c>
       <c r="U46" t="n">
-        <v>1966.432666470481</v>
+        <v>3354.942558417945</v>
       </c>
       <c r="V46" t="n">
-        <v>1679.477158340911</v>
+        <v>3067.987050288375</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.450753927203</v>
+        <v>2795.960645874667</v>
       </c>
       <c r="X46" t="n">
-        <v>1162.058999260615</v>
+        <v>2550.56889120808</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.6393285747235</v>
+        <v>2323.149220522188</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>304.8472592415459</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>46.14594532369222</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>884.5424948664926</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.7644221814644</v>
       </c>
       <c r="O8" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8535,22 +8537,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>41.7644221814644</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>935.0049156307114</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9240,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9875,19 +9877,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>757.9381297620648</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>349.2983329370937</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>974.3735436572672</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>974.3735436572672</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>324.4910245135648</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>974.373543657267</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>74.93021143980604</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22547,25 +22549,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>226.2451359811659</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>229.3936637186735</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.50874676570933</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>63.43016517136665</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>239.1593548490985</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>259.1838292441805</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>324.1850710382109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23030,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>29.93229572596528</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>162.5541314930673</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>55.73208518163068</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.302198375754585</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>194.6072758233859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>286.7087065635876</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>121.8553482690909</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142718</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.2197249473427</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>262.6091216759061</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25925,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>297.0438614075956</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>446566.9033252504</v>
+        <v>439820.2632907138</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446566.9033252505</v>
+        <v>563098.1416389196</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>446566.9033252505</v>
+        <v>563098.1416389196</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446566.9033252505</v>
+        <v>563098.1416389195</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446566.9033252505</v>
+        <v>563098.1416389196</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685182.2929548343</v>
+        <v>685182.2929548342</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>685182.2929548344</v>
+        <v>685182.2929548343</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685182.2929548342</v>
+        <v>685182.2929548343</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>446566.9033252505</v>
+        <v>563098.1416389195</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>446566.9033252504</v>
+        <v>563098.1416389195</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163104.9898309993</v>
+        <v>160640.833517505</v>
       </c>
       <c r="C2" t="n">
-        <v>163104.9898309993</v>
+        <v>205667.0926169763</v>
       </c>
       <c r="D2" t="n">
-        <v>163104.9898309993</v>
+        <v>205667.0926169763</v>
       </c>
       <c r="E2" t="n">
-        <v>163104.9898309993</v>
+        <v>205667.0926169763</v>
       </c>
       <c r="F2" t="n">
-        <v>163104.9898309993</v>
+        <v>205667.0926169763</v>
       </c>
       <c r="G2" t="n">
         <v>250257.3524652424</v>
@@ -26350,10 +26352,10 @@
         <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>163104.9898309993</v>
+        <v>205667.0926169763</v>
       </c>
       <c r="P2" t="n">
-        <v>163104.9898309993</v>
+        <v>205667.0926169763</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537223</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690581</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973265</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9284.299089827527</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="C4" t="n">
-        <v>9284.299089827529</v>
+        <v>11707.02872284755</v>
       </c>
       <c r="D4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284756</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284756</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284756</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284755</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>11707.02872284755</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436185</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436185</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436186</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436186</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436184</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436184</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150740.4514682327</v>
+        <v>-146415.4234555953</v>
       </c>
       <c r="C6" t="n">
-        <v>78587.12350428029</v>
+        <v>1953.618984394663</v>
       </c>
       <c r="D6" t="n">
-        <v>78587.12350428029</v>
+        <v>101090.5524397669</v>
       </c>
       <c r="E6" t="n">
-        <v>112214.7235042803</v>
+        <v>134718.1524397669</v>
       </c>
       <c r="F6" t="n">
-        <v>112214.7235042803</v>
+        <v>134718.1524397669</v>
       </c>
       <c r="G6" t="n">
-        <v>-4499.379509484235</v>
+        <v>75003.05093205141</v>
       </c>
       <c r="H6" t="n">
         <v>158293.9082889572</v>
@@ -26543,25 +26545,25 @@
         <v>158293.9082889572</v>
       </c>
       <c r="J6" t="n">
-        <v>-20751.34979869473</v>
+        <v>-16357.44042874899</v>
       </c>
       <c r="K6" t="n">
+        <v>79318.39179922457</v>
+      </c>
+      <c r="L6" t="n">
         <v>158293.9082889572</v>
-      </c>
-      <c r="L6" t="n">
-        <v>158293.9082889573</v>
       </c>
       <c r="M6" t="n">
         <v>158293.9082889572</v>
       </c>
       <c r="N6" t="n">
-        <v>158293.9082889573</v>
+        <v>158293.9082889572</v>
       </c>
       <c r="O6" t="n">
-        <v>112214.7235042803</v>
+        <v>134718.1524397669</v>
       </c>
       <c r="P6" t="n">
-        <v>112214.7235042803</v>
+        <v>134718.1524397669</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572672</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572672</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494104</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.886959727478</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494104</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494104</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.886959727478</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>304.8472592415459</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K5" t="n">
-        <v>46.14594532369222</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>884.5424948664926</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.7644221814644</v>
       </c>
       <c r="O8" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,16 +35336,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>41.7644221814644</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,16 +35573,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>935.0049156307114</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,16 +35810,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,10 +35962,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36127,22 +36129,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36595,19 +36597,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132072</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>757.9381297620648</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>349.2983329370937</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>974.3735436572672</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>974.3735436572672</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>324.4910245135648</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>974.373543657267</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>74.93021143980604</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625806.5674532014</v>
+        <v>624125.1746678711</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799231.59170662</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228144.448830838</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7090511.242038809</v>
+        <v>7078242.995475579</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>74.47109346325988</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>185.5573750678089</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -898,19 +898,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>192.3913321282014</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>12.43945598307531</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1135,16 +1135,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>109.5759770502</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>372.9172925969784</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1375,13 +1375,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>294.3343865874762</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>94.07594816308598</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1612,10 +1612,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>257.8062801319978</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>62.02280383276737</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2007,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>124.0599116349192</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>221.774480175688</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>164.383504742125</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225738</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>134.7747313870626</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>743.9292024621484</v>
+        <v>2499.524929691732</v>
       </c>
       <c r="C2" t="n">
-        <v>743.9292024621484</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D2" t="n">
-        <v>743.9292024621484</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E2" t="n">
-        <v>743.9292024621484</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>3589.90225744859</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>3330.679954765606</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>3330.679954765606</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2925.82450017664</v>
       </c>
       <c r="X2" t="n">
-        <v>1152.215326162495</v>
+        <v>2925.82450017664</v>
       </c>
       <c r="Y2" t="n">
-        <v>743.9292024621484</v>
+        <v>2925.82450017664</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462408</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C4" t="n">
-        <v>590.3333424294657</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D4" t="n">
-        <v>424.4553496309884</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E4" t="n">
-        <v>254.6973458817257</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F4" t="n">
-        <v>77.99029184348186</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G4" t="n">
-        <v>77.99029184348186</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>77.99029184348186</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431416</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.13334335112</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652279</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1397.004082558041</v>
+        <v>2098.543887687856</v>
       </c>
       <c r="C5" t="n">
-        <v>1397.004082558041</v>
+        <v>1660.401414871279</v>
       </c>
       <c r="D5" t="n">
-        <v>1202.669403640666</v>
+        <v>1224.491630045724</v>
       </c>
       <c r="E5" t="n">
-        <v>768.8946587989612</v>
+        <v>790.716885204019</v>
       </c>
       <c r="F5" t="n">
-        <v>768.8946587989612</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="G5" t="n">
-        <v>367.4968274222251</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>78.36667286544139</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>513.2045709454993</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>513.2045709454993</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L5" t="n">
-        <v>513.2045709454993</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M5" t="n">
-        <v>513.2045709454993</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.901640863327</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>2353.531449084021</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3897.49417462907</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3677.426947502108</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3418.204644819125</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V5" t="n">
-        <v>3055.587694752951</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="W5" t="n">
-        <v>2650.732240163985</v>
+        <v>2956.551028647064</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.589776743296</v>
+        <v>2537.408565226375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1823.303653042949</v>
+        <v>2524.843458172764</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>584.1216284838741</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>477.6651673205164</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>382.5748784670697</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>288.4544637940234</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>205.070625410185</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1624.01686687705</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1172.101498812342</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>986.7787445455365</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>831.9113087844165</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>705.4255295636373</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>766.0258996155653</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>593.4641880987903</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>427.586195300313</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>257.8281915510502</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>81.12113751280643</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2673.191672100753</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2513.950303398749</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2268.070856977205</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>1989.63785623031</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1702.68234810074</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1430.655943687032</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.264189020444</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.8445183345525</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.352208741878</v>
+        <v>2499.524929691732</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.669403640666</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D8" t="n">
-        <v>1202.669403640666</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E8" t="n">
-        <v>768.8946587989612</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F8" t="n">
-        <v>768.8946587989612</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G8" t="n">
-        <v>367.4968274222251</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
-        <v>78.36667286544139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>513.2045709454993</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>1347.554862903677</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L8" t="n">
-        <v>1347.554862903677</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M8" t="n">
-        <v>1347.554862903677</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.901640863327</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O8" t="n">
-        <v>2353.531449084021</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3813.842300812907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>3593.775073685945</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>3334.552771002962</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2971.935820936788</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W8" t="n">
-        <v>2567.080366347822</v>
+        <v>2925.82450017664</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.937902927133</v>
+        <v>2925.82450017664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.651779226786</v>
+        <v>2925.82450017664</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>584.1216284838741</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>477.6651673205164</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>382.5748784670697</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>288.4544637940234</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>205.070625410185</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1624.01686687705</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1172.101498812342</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>986.7787445455365</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>831.9113087844165</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>705.4255295636373</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>928.4459205695126</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>755.8842090527376</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>590.0062162542603</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>420.2482125049975</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>243.5411584667537</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2673.191672100753</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2673.191672100753</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.102369054687</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.684209974391</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1781.267402102242</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.124929285665</v>
+        <v>1205.782549101495</v>
       </c>
       <c r="D11" t="n">
-        <v>907.2151444601097</v>
+        <v>1205.782549101495</v>
       </c>
       <c r="E11" t="n">
-        <v>907.2151444601097</v>
+        <v>772.0078042597902</v>
       </c>
       <c r="F11" t="n">
-        <v>479.3477148693175</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G11" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H11" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>513.2045709454993</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>1347.554862903677</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>1347.554862903677</v>
+        <v>228.1169872144811</v>
       </c>
       <c r="M11" t="n">
-        <v>1347.554862903677</v>
+        <v>1135.235569298822</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.184671124372</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084021</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>3802.467964363326</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V11" t="n">
-        <v>3439.851014297153</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W11" t="n">
-        <v>3034.995559708186</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X11" t="n">
-        <v>2615.853096287497</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y11" t="n">
-        <v>2207.56697258715</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>584.1216284838741</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>477.6651673205164</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>382.5748784670697</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>288.4544637940234</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>205.070625410185</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1624.01686687705</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1172.101498812342</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>986.7787445455365</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>831.9113087844165</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>705.4255295636373</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>928.4459205695126</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>755.8842090527376</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>590.0062162542603</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>420.2482125049975</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>243.5411584667537</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2676.370324352697</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1865.102369054687</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.684209974391</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.644315567211</v>
+        <v>1489.269741992311</v>
       </c>
       <c r="C14" t="n">
-        <v>1375.501842750634</v>
+        <v>1051.127269175734</v>
       </c>
       <c r="D14" t="n">
-        <v>939.5920579250785</v>
+        <v>1051.127269175734</v>
       </c>
       <c r="E14" t="n">
-        <v>505.8173130833736</v>
+        <v>790.716885204019</v>
       </c>
       <c r="F14" t="n">
-        <v>77.94988349258139</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="G14" t="n">
-        <v>77.94988349258139</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H14" t="n">
-        <v>77.94988349258139</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>77.94988349258139</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1003.604749966986</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1968.23455818768</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>2932.864366408375</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>3897.49417462907</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>3897.49417462907</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3897.49417462907</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>3897.49417462907</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U14" t="n">
-        <v>3834.844877828295</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V14" t="n">
-        <v>3472.227927762121</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W14" t="n">
-        <v>3067.372473173155</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X14" t="n">
-        <v>2648.230009752465</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y14" t="n">
-        <v>2239.943886052119</v>
+        <v>1915.569312477218</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>584.1216284838741</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>477.6651673205164</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>382.5748784670697</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>288.4544637940234</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>205.070625410185</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1624.01686687705</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1172.101498812342</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>986.7787445455365</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>831.9113087844165</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>705.4255295636373</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>928.4459205695126</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>755.8842090527376</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>590.0062162542603</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>420.2482125049975</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>243.5411584667537</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2676.370324352697</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1865.102369054687</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.684209974391</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6919,43 +6919,43 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>852.6195887352237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1979.688259751175</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1541.545786934599</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1105.636002109043</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>671.8612572673383</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>243.993827676546</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G41" t="n">
-        <v>243.993827676546</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>77.94988349258138</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>77.94988349258138</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>513.2045709454992</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2045709454992</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>513.2045709454992</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M41" t="n">
-        <v>1477.834379166194</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.464187386888</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O41" t="n">
-        <v>3407.093995607583</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>3407.093995607583</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3728.340109876012</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3638.271871946085</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3638.271871946085</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>3233.416417357119</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>2814.27395393643</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2405.987830236083</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2740.426158141553</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>2633.969696978195</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>2538.879408124748</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>2444.758993451702</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>2361.375155067864</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>2275.990065334048</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>2234.25441315026</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>2260.318086310718</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>2584.87641127693</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L42" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M42" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N42" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O42" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P42" t="n">
-        <v>3239.582457902653</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>3780.321396534729</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>3897.494174629069</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>3834.038737077452</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>3703.860093408054</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>3527.523546408022</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>3328.406028470021</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>3143.083274203215</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>2988.215838442095</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>2861.730059221316</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>946.6850896121969</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>774.1233780954218</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>608.2453852969445</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>438.4873815476818</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>261.7803275094379</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>96.1890525352656</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>77.94988349258138</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>77.94988349258138</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.609493395381</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2448.730046973836</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2170.297046226941</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1883.341538097372</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1611.315133683663</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1365.923379017076</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.503708331184</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2238.910562434159</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1800.768089617582</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1364.858304792027</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>931.0835599503216</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>503.2161303595294</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>367.0800380493651</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>77.94988349258138</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>77.94988349258138</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>513.2045709454992</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.184671124372</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.184671124372</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.184671124372</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O44" t="n">
-        <v>3276.814479345066</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>3350.995388670474</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3492.638720040102</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>3073.496256619413</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2665.210132919066</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2740.426158141553</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>2633.969696978195</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>2538.879408124748</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>2444.758993451702</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>2361.375155067864</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>2275.990065334048</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>2234.25441315026</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>2260.318086310718</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>2584.87641127693</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>3239.582457902653</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>3239.582457902653</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>3239.582457902653</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>3780.321396534729</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>3897.494174629069</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>3834.038737077452</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>3703.860093408054</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>3527.523546408022</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>3328.406028470021</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>3143.083274203215</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>2988.215838442095</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>2861.730059221316</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2131.330601803201</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>1958.768890286426</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>1792.890897487948</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>1623.132893738686</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>1446.425839700442</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>1280.834564726269</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>1280.834564726269</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>1280.834564726269</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>1367.414249890959</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>1642.172704462095</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>2060.382586230055</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>2519.866453410968</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>2962.125256568613</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>3381.794505794394</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>3729.301399764736</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>3897.494174629069</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>3897.494174629069</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>3879.255005586384</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>3633.37555916484</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>3354.942558417945</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>3067.987050288375</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>2795.960645874667</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>2550.56889120808</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>2323.149220522188</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047208</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>884.5424948664926</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.7644221814644</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572674</v>
+        <v>309.4863362707124</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>41.7644221814644</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>935.0049156307114</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572674</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>757.9381297620648</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>974.3735436572672</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>974.3735436572672</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572674</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4910245135648</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.373543657267</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
-        <v>74.93021143980604</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>143.3954613924319</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>229.3936637186735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>63.43016517136665</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>239.1593548490985</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>391.7638064802678</v>
       </c>
     </row>
     <row r="6">
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>324.1850710382109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>27.88960744609864</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>129.2543687074081</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>162.5541314930673</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.6307172612899</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>194.6072758233859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>44.00051207685092</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>121.8553482690909</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25684,7 +25684,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142718</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>262.6091216759061</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>439820.2632907138</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>563098.1416389196</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>563098.1416389196</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563098.1416389195</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563098.1416389196</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>685182.2929548343</v>
+        <v>685182.2929548342</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685182.2929548342</v>
+        <v>685182.2929548343</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563098.1416389195</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563098.1416389195</v>
+        <v>539760.0867722402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160640.833517505</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="C2" t="n">
-        <v>205667.0926169763</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="D2" t="n">
-        <v>205667.0926169763</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="E2" t="n">
-        <v>205667.0926169763</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="F2" t="n">
-        <v>205667.0926169763</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="G2" t="n">
         <v>250257.3524652424</v>
@@ -26352,10 +26352,10 @@
         <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>205667.0926169763</v>
+        <v>197143.0547329314</v>
       </c>
       <c r="P2" t="n">
-        <v>205667.0926169763</v>
+        <v>197143.0547329314</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
-        <v>99136.93345537223</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83290.85735690581</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
-        <v>78975.51648973265</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9144.033827297713</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="C4" t="n">
-        <v>11707.02872284755</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="D4" t="n">
-        <v>11707.02872284756</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="E4" t="n">
-        <v>11707.02872284756</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="F4" t="n">
-        <v>11707.02872284756</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26456,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>11707.02872284755</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="P4" t="n">
-        <v>11707.02872284755</v>
+        <v>11221.82151213932</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>92869.51145436185</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>92869.51145436185</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>59241.91145436186</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>59241.91145436186</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>59241.91145436184</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>59241.91145436184</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146415.4234555953</v>
+        <v>-210786.0192202647</v>
       </c>
       <c r="C6" t="n">
-        <v>1953.618984394663</v>
+        <v>96280.9510664531</v>
       </c>
       <c r="D6" t="n">
-        <v>101090.5524397669</v>
+        <v>96280.95106645307</v>
       </c>
       <c r="E6" t="n">
-        <v>134718.1524397669</v>
+        <v>129908.551066453</v>
       </c>
       <c r="F6" t="n">
-        <v>134718.1524397669</v>
+        <v>129908.5510664531</v>
       </c>
       <c r="G6" t="n">
-        <v>75003.05093205141</v>
+        <v>59057.64031430257</v>
       </c>
       <c r="H6" t="n">
-        <v>158293.9082889572</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="I6" t="n">
-        <v>158293.9082889572</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="J6" t="n">
-        <v>-16357.44042874899</v>
+        <v>-81468.84563716817</v>
       </c>
       <c r="K6" t="n">
-        <v>79318.39179922457</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="L6" t="n">
-        <v>158293.9082889572</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="M6" t="n">
-        <v>158293.9082889572</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="N6" t="n">
-        <v>158293.9082889572</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="O6" t="n">
-        <v>134718.1524397669</v>
+        <v>129908.5510664531</v>
       </c>
       <c r="P6" t="n">
-        <v>134718.1524397669</v>
+        <v>129908.5510664531</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>974.3735436572672</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>974.3735436572672</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>306.8583370494104</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>303.886959727478</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494104</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494104</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>303.886959727478</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047208</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34871,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>884.5424948664926</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -35014,7 +35014,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35099,10 +35099,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.7644221814644</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572674</v>
+        <v>309.4863362707124</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35336,10 +35336,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>41.7644221814644</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35488,10 +35488,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35573,10 +35573,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>935.0049156307114</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572674</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35810,10 +35810,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>757.9381297620648</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,7 +37326,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>974.3735436572672</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>974.3735436572672</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572674</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4910245135648</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.373543657267</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
-        <v>74.93021143980604</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
